--- a/Assets/_FightGame/xmls/Skill.xlsx
+++ b/Assets/_FightGame/xmls/Skill.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -26,11 +26,20 @@
   <connection id="2" name="SkillInfoMap" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="3" name="SkillInfoMap1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="4" name="SkillInfoMap2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="5" name="SkillInfoMap3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>careerId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HealHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attack 01</t>
   </si>
   <si>
@@ -113,6 +118,22 @@
   </si>
   <si>
     <t>skillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>healMp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>healHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml里的映射需要至少两个子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +203,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema5">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="info">
         <xsd:complexType>
@@ -196,9 +217,11 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="damage" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="level" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="mp" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="HealHp" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="healHp" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="healMp" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:boolean" name="passive" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="skillType" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="distance" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -207,42 +230,48 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="2" Name="info_映射" RootElement="info" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  <Map ID="5" Name="info_映射" RootElement="info" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I20" tableType="xml" totalsRowShown="0" connectionId="2">
-  <autoFilter ref="A1:I20"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:K20" tableType="xml" totalsRowShown="0" connectionId="5">
+  <autoFilter ref="A1:K20"/>
+  <tableColumns count="11">
     <tableColumn id="1" uniqueName="id" name="id">
-      <xmlColumnPr mapId="2" xpath="/info/level/id" xmlDataType="integer"/>
+      <xmlColumnPr mapId="5" xpath="/info/level/id" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="careerId" name="careerId">
-      <xmlColumnPr mapId="2" xpath="/info/level/careerId" xmlDataType="integer"/>
+      <xmlColumnPr mapId="5" xpath="/info/level/careerId" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="skillName" name="skillName" dataDxfId="0">
-      <xmlColumnPr mapId="2" xpath="/info/level/skillName" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/info/level/skillName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="damage" name="damage">
-      <xmlColumnPr mapId="2" xpath="/info/level/damage" xmlDataType="integer"/>
+      <xmlColumnPr mapId="5" xpath="/info/level/damage" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="level" name="level">
-      <xmlColumnPr mapId="2" xpath="/info/level/level" xmlDataType="integer"/>
+      <xmlColumnPr mapId="5" xpath="/info/level/level" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="mp" name="mp">
-      <xmlColumnPr mapId="2" xpath="/info/level/mp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="5" xpath="/info/level/mp" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="HealHp" name="HealHp">
-      <xmlColumnPr mapId="2" xpath="/info/level/HealHp" xmlDataType="integer"/>
+    <tableColumn id="7" uniqueName="healHp" name="healHp">
+      <xmlColumnPr mapId="5" xpath="/info/level/healHp" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="healMp" name="healMp">
+      <xmlColumnPr mapId="5" xpath="/info/level/healMp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="passive" name="passive">
-      <xmlColumnPr mapId="2" xpath="/info/level/passive" xmlDataType="boolean"/>
+      <xmlColumnPr mapId="5" xpath="/info/level/passive" xmlDataType="boolean"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="distance" name="distance">
+      <xmlColumnPr mapId="5" xpath="/info/level/distance" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="skillType" name="skillType">
-      <xmlColumnPr mapId="2" xpath="/info/level/skillType" xmlDataType="integer"/>
+      <xmlColumnPr mapId="5" xpath="/info/level/skillType" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -512,26 +541,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -548,19 +579,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -568,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -582,14 +619,20 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -597,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -611,14 +654,20 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -626,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -640,14 +689,20 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -655,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -667,16 +722,22 @@
         <v>25</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -684,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -698,14 +759,20 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -713,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -727,14 +794,20 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -742,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -754,16 +827,22 @@
         <v>20</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -771,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -785,14 +864,20 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -800,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>30</v>
@@ -814,14 +899,20 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3001</v>
       </c>
@@ -829,7 +920,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -843,14 +934,20 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3002</v>
       </c>
@@ -858,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -872,14 +969,20 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3003</v>
       </c>
@@ -887,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -901,14 +1004,20 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3004</v>
       </c>
@@ -916,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>30</v>
@@ -928,16 +1037,22 @@
         <v>25</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3005</v>
       </c>
@@ -945,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>30</v>
@@ -959,14 +1074,20 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3006</v>
       </c>
@@ -974,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>40</v>
@@ -988,14 +1109,20 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4001</v>
       </c>
@@ -1003,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -1017,14 +1144,20 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4002</v>
       </c>
@@ -1032,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -1046,14 +1179,20 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4003</v>
       </c>
@@ -1061,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>20</v>
@@ -1075,14 +1214,20 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4004</v>
       </c>
@@ -1090,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>30</v>
@@ -1102,20 +1247,32 @@
         <v>25</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <v>60</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/_FightGame/xmls/Skill.xlsx
+++ b/Assets/_FightGame/xmls/Skill.xlsx
@@ -184,7 +184,10 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -246,8 +249,11 @@
     <tableColumn id="2" uniqueName="careerId" name="careerId">
       <xmlColumnPr mapId="5" xpath="/info/level/careerId" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="skillName" name="skillName" dataDxfId="0">
+    <tableColumn id="3" uniqueName="skillName" name="skillName" dataDxfId="1">
       <xmlColumnPr mapId="5" xpath="/info/level/skillName" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="skillType" name="skillType" dataDxfId="0">
+      <xmlColumnPr mapId="5" xpath="/info/level/skillType" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="damage" name="damage">
       <xmlColumnPr mapId="5" xpath="/info/level/damage" xmlDataType="integer"/>
@@ -269,9 +275,6 @@
     </tableColumn>
     <tableColumn id="11" uniqueName="distance" name="distance">
       <xmlColumnPr mapId="5" xpath="/info/level/distance" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="9" uniqueName="skillType" name="skillType">
-      <xmlColumnPr mapId="5" xpath="/info/level/skillType" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -544,7 +547,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,14 +555,14 @@
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" customWidth="1"/>
-    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -573,28 +576,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -608,28 +611,28 @@
         <v>5</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -643,28 +646,28 @@
         <v>6</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>15</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -678,28 +681,28 @@
         <v>7</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -713,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>30</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
       <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>25</v>
-      </c>
-      <c r="G5">
-        <v>60</v>
       </c>
       <c r="H5">
         <v>60</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -748,28 +751,28 @@
         <v>9</v>
       </c>
       <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>50</v>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -783,28 +786,28 @@
         <v>10</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>15</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -818,28 +821,28 @@
         <v>11</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>20</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>20</v>
-      </c>
-      <c r="G8">
-        <v>60</v>
       </c>
       <c r="H8">
         <v>60</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="I8">
+        <v>60</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -853,28 +856,28 @@
         <v>12</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>30</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
       <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
         <v>25</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -888,28 +891,28 @@
         <v>13</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>30</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
       <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
         <v>25</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -923,28 +926,28 @@
         <v>14</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -958,28 +961,28 @@
         <v>15</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>10</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -993,28 +996,28 @@
         <v>16</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>20</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1028,28 +1031,28 @@
         <v>8</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>30</v>
       </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
       <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
         <v>25</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
       </c>
       <c r="H14">
         <v>50</v>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+      <c r="I14">
+        <v>50</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1063,28 +1066,28 @@
         <v>17</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>30</v>
       </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
       <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
         <v>25</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1098,28 +1101,28 @@
         <v>18</v>
       </c>
       <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>40</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
       <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
         <v>30</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1133,28 +1136,28 @@
         <v>19</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>10</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>10</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1168,28 +1171,28 @@
         <v>20</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>15</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>15</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1203,28 +1206,28 @@
         <v>10</v>
       </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>20</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>20</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1238,28 +1241,28 @@
         <v>8</v>
       </c>
       <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>30</v>
       </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
       <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
         <v>25</v>
-      </c>
-      <c r="G20">
-        <v>60</v>
       </c>
       <c r="H20">
         <v>60</v>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+      <c r="I20">
+        <v>60</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">

--- a/Assets/_FightGame/xmls/Skill.xlsx
+++ b/Assets/_FightGame/xmls/Skill.xlsx
@@ -35,11 +35,23 @@
   <connection id="5" name="SkillInfoMap3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="6" name="SkillInfoMap4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="7" name="SkillInfoMap5" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="8" name="SkillInfoMap6" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="9" name="SkillInfoMap7" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>careerId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,9 +87,6 @@
     <t>Projectile Attack</t>
   </si>
   <si>
-    <t>Cast Spell 02</t>
-  </si>
-  <si>
     <t>Channeling</t>
   </si>
   <si>
@@ -133,7 +138,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>distance</t>
+    <t>damageRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damagePeople</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>releaseDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>releaseSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cast Spell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancherName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBallSmall</t>
+  </si>
+  <si>
+    <t>FireBallLarge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,19 +221,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -206,7 +256,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema5">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="info">
         <xsd:complexType>
@@ -217,14 +267,18 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="id" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="careerId" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skillName" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="damage" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="damageHp" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="level" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="mp" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="healHp" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="healMp" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:boolean" name="passive" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="skillType" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="distance" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="releaseDistance" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="damageRadius" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="damagePeople" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="releaseSpeed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="lancherName" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -233,48 +287,60 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="5" Name="info_映射" RootElement="info" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
+  <Map ID="9" Name="info_映射" RootElement="info" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="9" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:K20" tableType="xml" totalsRowShown="0" connectionId="5">
-  <autoFilter ref="A1:K20"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:O20" tableType="xml" totalsRowShown="0" headerRowDxfId="2" connectionId="9">
+  <autoFilter ref="A1:O20"/>
+  <tableColumns count="15">
     <tableColumn id="1" uniqueName="id" name="id">
-      <xmlColumnPr mapId="5" xpath="/info/level/id" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/info/level/id" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="careerId" name="careerId">
-      <xmlColumnPr mapId="5" xpath="/info/level/careerId" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/info/level/careerId" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="skillName" name="skillName" dataDxfId="1">
-      <xmlColumnPr mapId="5" xpath="/info/level/skillName" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/info/level/skillName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="skillType" name="skillType" dataDxfId="0">
-      <xmlColumnPr mapId="5" xpath="/info/level/skillType" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/info/level/skillType" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="damage" name="damage">
-      <xmlColumnPr mapId="5" xpath="/info/level/damage" xmlDataType="integer"/>
+    <tableColumn id="15" uniqueName="lancherName" name="lancherName">
+      <xmlColumnPr mapId="9" xpath="/info/level/lancherName" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="damageHp" name="damageHp">
+      <xmlColumnPr mapId="9" xpath="/info/level/damageHp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="level" name="level">
-      <xmlColumnPr mapId="5" xpath="/info/level/level" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/info/level/level" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="mp" name="mp">
-      <xmlColumnPr mapId="5" xpath="/info/level/mp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/info/level/mp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="healHp" name="healHp">
-      <xmlColumnPr mapId="5" xpath="/info/level/healHp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/info/level/healHp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="healMp" name="healMp">
-      <xmlColumnPr mapId="5" xpath="/info/level/healMp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/info/level/healMp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="passive" name="passive">
-      <xmlColumnPr mapId="5" xpath="/info/level/passive" xmlDataType="boolean"/>
+      <xmlColumnPr mapId="9" xpath="/info/level/passive" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="distance" name="distance">
-      <xmlColumnPr mapId="5" xpath="/info/level/distance" xmlDataType="integer"/>
+    <tableColumn id="12" uniqueName="damageRadius" name="damageRadius">
+      <xmlColumnPr mapId="9" xpath="/info/level/damageRadius" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="damagePeople" name="damagePeople">
+      <xmlColumnPr mapId="9" xpath="/info/level/damagePeople" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="releaseSpeed" name="releaseSpeed">
+      <xmlColumnPr mapId="9" xpath="/info/level/releaseSpeed" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="releaseDistance" name="releaseDistance">
+      <xmlColumnPr mapId="9" xpath="/info/level/releaseDistance" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -544,63 +610,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="18.125" customWidth="1"/>
+    <col min="13" max="14" width="17.75" customWidth="1"/>
+    <col min="15" max="15" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -608,34 +689,46 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -643,34 +736,46 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3">
         <v>15</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>15</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -678,34 +783,46 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>20</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -713,34 +830,46 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>25</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
       </c>
       <c r="I5">
         <v>60</v>
       </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -748,34 +877,46 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>5.5</v>
+      </c>
+      <c r="O6">
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -783,34 +924,46 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>15</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -818,34 +971,46 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8">
         <v>20</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>20</v>
-      </c>
-      <c r="H8">
-        <v>60</v>
       </c>
       <c r="I8">
         <v>60</v>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>60</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -853,34 +1018,46 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
         <v>30</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>25</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -888,34 +1065,46 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10">
         <v>30</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>25</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3001</v>
       </c>
@@ -923,34 +1112,46 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3002</v>
       </c>
@@ -958,34 +1159,46 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12">
         <v>10</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3003</v>
       </c>
@@ -993,34 +1206,46 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13">
         <v>20</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>20</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3004</v>
       </c>
@@ -1028,34 +1253,46 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14">
         <v>30</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>25</v>
-      </c>
-      <c r="H14">
-        <v>50</v>
       </c>
       <c r="I14">
         <v>50</v>
       </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3005</v>
       </c>
@@ -1063,34 +1300,46 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15">
         <v>30</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>25</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3006</v>
       </c>
@@ -1098,34 +1347,46 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16">
         <v>40</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>30</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4001</v>
       </c>
@@ -1133,34 +1394,46 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17">
         <v>10</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
       <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>10</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4002</v>
       </c>
@@ -1168,34 +1441,46 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18">
         <v>15</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
       <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>15</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4003</v>
       </c>
@@ -1203,34 +1488,46 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19">
         <v>20</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>20</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4004</v>
       </c>
@@ -1238,36 +1535,48 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
         <v>30</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>25</v>
-      </c>
-      <c r="H20">
-        <v>60</v>
       </c>
       <c r="I20">
         <v>60</v>
       </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>60</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_FightGame/xmls/Skill.xlsx
+++ b/Assets/_FightGame/xmls/Skill.xlsx
@@ -47,11 +47,14 @@
   <connection id="9" name="SkillInfoMap7" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="10" name="SkillInfoMap8" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>careerId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +181,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firePoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,17 +228,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -239,7 +253,7 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -256,7 +270,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="info">
         <xsd:complexType>
@@ -279,6 +293,7 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="damagePeople" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="releaseSpeed" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="lancherName" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="FirePoint" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -287,60 +302,63 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="9" Name="info_映射" RootElement="info" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="9" DataBindingLoadMode="1"/>
+  <Map ID="10" Name="info_映射" RootElement="info" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="10" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:O20" tableType="xml" totalsRowShown="0" headerRowDxfId="2" connectionId="9">
-  <autoFilter ref="A1:O20"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:P20" tableType="xml" totalsRowShown="0" headerRowDxfId="1" connectionId="10">
+  <autoFilter ref="A1:P20"/>
+  <tableColumns count="16">
     <tableColumn id="1" uniqueName="id" name="id">
-      <xmlColumnPr mapId="9" xpath="/info/level/id" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/info/level/id" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="careerId" name="careerId">
-      <xmlColumnPr mapId="9" xpath="/info/level/careerId" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/info/level/careerId" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="skillName" name="skillName" dataDxfId="1">
-      <xmlColumnPr mapId="9" xpath="/info/level/skillName" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="9" uniqueName="skillType" name="skillType" dataDxfId="0">
-      <xmlColumnPr mapId="9" xpath="/info/level/skillType" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="15" uniqueName="lancherName" name="lancherName">
-      <xmlColumnPr mapId="9" xpath="/info/level/lancherName" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="skillName" name="skillName" dataDxfId="4">
+      <xmlColumnPr mapId="10" xpath="/info/level/skillName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="damageHp" name="damageHp">
-      <xmlColumnPr mapId="9" xpath="/info/level/damageHp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/info/level/damageHp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="level" name="level">
-      <xmlColumnPr mapId="9" xpath="/info/level/level" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/info/level/level" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="mp" name="mp">
-      <xmlColumnPr mapId="9" xpath="/info/level/mp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/info/level/mp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="healHp" name="healHp">
-      <xmlColumnPr mapId="9" xpath="/info/level/healHp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/info/level/healHp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="healMp" name="healMp">
-      <xmlColumnPr mapId="9" xpath="/info/level/healMp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/info/level/healMp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="passive" name="passive">
-      <xmlColumnPr mapId="9" xpath="/info/level/passive" xmlDataType="boolean"/>
+      <xmlColumnPr mapId="10" xpath="/info/level/passive" xmlDataType="boolean"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="skillType" name="skillType" dataDxfId="3">
+      <xmlColumnPr mapId="10" xpath="/info/level/skillType" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="releaseDistance" name="releaseDistance">
+      <xmlColumnPr mapId="10" xpath="/info/level/releaseDistance" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="12" uniqueName="damageRadius" name="damageRadius">
-      <xmlColumnPr mapId="9" xpath="/info/level/damageRadius" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/info/level/damageRadius" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="damagePeople" name="damagePeople">
-      <xmlColumnPr mapId="9" xpath="/info/level/damagePeople" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/info/level/damagePeople" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="14" uniqueName="releaseSpeed" name="releaseSpeed">
-      <xmlColumnPr mapId="9" xpath="/info/level/releaseSpeed" xmlDataType="integer"/>
+      <xmlColumnPr mapId="10" xpath="/info/level/releaseSpeed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="releaseDistance" name="releaseDistance">
-      <xmlColumnPr mapId="9" xpath="/info/level/releaseDistance" xmlDataType="integer"/>
+    <tableColumn id="15" uniqueName="lancherName" name="lancherName" dataDxfId="2">
+      <xmlColumnPr mapId="10" xpath="/info/level/lancherName" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="16" uniqueName="FirePoint" name="firePoint" dataDxfId="0">
+      <xmlColumnPr mapId="10" xpath="/info/level/FirePoint" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -610,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,67 +639,77 @@
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="18.125" customWidth="1"/>
-    <col min="13" max="14" width="17.75" customWidth="1"/>
-    <col min="15" max="15" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1"/>
+    <col min="15" max="15" width="15.375" customWidth="1"/>
+    <col min="16" max="16" width="17.125" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="17.125" customWidth="1"/>
+    <col min="21" max="22" width="17.75" customWidth="1"/>
+    <col min="23" max="23" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -692,27 +720,27 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
@@ -724,11 +752,14 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -739,27 +770,27 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>15</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>15</v>
-      </c>
-      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
@@ -771,11 +802,14 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -786,27 +820,27 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
       </c>
       <c r="F4">
         <v>20</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>20</v>
-      </c>
-      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
+        <v>3</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
@@ -818,11 +852,14 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -833,43 +870,46 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>25</v>
-      </c>
-      <c r="I5">
-        <v>60</v>
-      </c>
-      <c r="J5">
-        <v>60</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -880,28 +920,28 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>3.5</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -912,11 +952,14 @@
       <c r="N6">
         <v>5.5</v>
       </c>
-      <c r="O6">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -927,27 +970,27 @@
         <v>9</v>
       </c>
       <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7">
-        <v>40</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
+      <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
@@ -959,11 +1002,14 @@
       <c r="N7">
         <v>8</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -974,28 +1020,28 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
       </c>
       <c r="F8">
         <v>20</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="I8">
         <v>60</v>
       </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
       <c r="J8">
-        <v>60</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1006,11 +1052,14 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -1021,43 +1070,46 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F9">
-        <v>30</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>25</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -1068,43 +1120,46 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>25</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3001</v>
       </c>
@@ -1115,27 +1170,27 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
@@ -1147,11 +1202,14 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3002</v>
       </c>
@@ -1162,27 +1220,27 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
@@ -1194,11 +1252,14 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3003</v>
       </c>
@@ -1209,27 +1270,27 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
       </c>
       <c r="F13">
         <v>20</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
-      </c>
-      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
@@ -1241,11 +1302,14 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3004</v>
       </c>
@@ -1256,43 +1320,46 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F14">
-        <v>30</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>25</v>
-      </c>
-      <c r="I14">
-        <v>50</v>
-      </c>
-      <c r="J14">
-        <v>50</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3005</v>
       </c>
@@ -1303,43 +1370,46 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F15">
-        <v>30</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>25</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3006</v>
       </c>
@@ -1350,43 +1420,46 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F16">
-        <v>40</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>30</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4001</v>
       </c>
@@ -1397,27 +1470,27 @@
         <v>17</v>
       </c>
       <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
@@ -1429,11 +1502,14 @@
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4002</v>
       </c>
@@ -1444,27 +1520,27 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18">
         <v>15</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
-      </c>
-      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
@@ -1476,11 +1552,14 @@
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4003</v>
       </c>
@@ -1491,27 +1570,27 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
       </c>
       <c r="F19">
         <v>20</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
-      </c>
-      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
@@ -1523,11 +1602,14 @@
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4004</v>
       </c>
@@ -1538,43 +1620,46 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <v>60</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F20">
-        <v>30</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>25</v>
-      </c>
-      <c r="I20">
-        <v>60</v>
-      </c>
-      <c r="J20">
-        <v>60</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>

--- a/Assets/_FightGame/xmls/Skill.xlsx
+++ b/Assets/_FightGame/xmls/Skill.xlsx
@@ -244,7 +244,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -253,7 +253,7 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,7 +309,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:P20" tableType="xml" totalsRowShown="0" headerRowDxfId="1" connectionId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:P20" tableType="xml" totalsRowShown="0" headerRowDxfId="4" connectionId="10">
   <autoFilter ref="A1:P20"/>
   <tableColumns count="16">
     <tableColumn id="1" uniqueName="id" name="id">
@@ -318,7 +318,7 @@
     <tableColumn id="2" uniqueName="careerId" name="careerId">
       <xmlColumnPr mapId="10" xpath="/info/level/careerId" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="skillName" name="skillName" dataDxfId="4">
+    <tableColumn id="3" uniqueName="skillName" name="skillName" dataDxfId="3">
       <xmlColumnPr mapId="10" xpath="/info/level/skillName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="damageHp" name="damageHp">
@@ -339,7 +339,7 @@
     <tableColumn id="8" uniqueName="passive" name="passive">
       <xmlColumnPr mapId="10" xpath="/info/level/passive" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="skillType" name="skillType" dataDxfId="3">
+    <tableColumn id="9" uniqueName="skillType" name="skillType" dataDxfId="2">
       <xmlColumnPr mapId="10" xpath="/info/level/skillType" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="11" uniqueName="releaseDistance" name="releaseDistance">
@@ -354,7 +354,7 @@
     <tableColumn id="14" uniqueName="releaseSpeed" name="releaseSpeed">
       <xmlColumnPr mapId="10" xpath="/info/level/releaseSpeed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="lancherName" name="lancherName" dataDxfId="2">
+    <tableColumn id="15" uniqueName="lancherName" name="lancherName" dataDxfId="1">
       <xmlColumnPr mapId="10" xpath="/info/level/lancherName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="16" uniqueName="FirePoint" name="firePoint" dataDxfId="0">
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -870,13 +870,13 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>60</v>
@@ -1020,13 +1020,13 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>60</v>
@@ -1126,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1320,13 +1320,13 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -1620,13 +1620,13 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>60</v>

--- a/Assets/_FightGame/xmls/Skill.xlsx
+++ b/Assets/_FightGame/xmls/Skill.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -50,11 +50,14 @@
   <connection id="10" name="SkillInfoMap8" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="11" name="SkillInfoMap9" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>careerId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +188,10 @@
   </si>
   <si>
     <t>firePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canMove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +246,10 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -270,7 +280,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema3">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="info">
         <xsd:complexType>
@@ -294,6 +304,7 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="releaseSpeed" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="lancherName" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="FirePoint" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="canMove" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -302,63 +313,66 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="10" Name="info_映射" RootElement="info" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="10" DataBindingLoadMode="1"/>
+  <Map ID="11" Name="info_映射" RootElement="info" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="11" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:P20" tableType="xml" totalsRowShown="0" headerRowDxfId="4" connectionId="10">
-  <autoFilter ref="A1:P20"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:Q20" tableType="xml" totalsRowShown="0" headerRowDxfId="5" connectionId="11">
+  <autoFilter ref="A1:Q20"/>
+  <tableColumns count="17">
     <tableColumn id="1" uniqueName="id" name="id">
-      <xmlColumnPr mapId="10" xpath="/info/level/id" xmlDataType="integer"/>
+      <xmlColumnPr mapId="11" xpath="/info/level/id" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="careerId" name="careerId">
-      <xmlColumnPr mapId="10" xpath="/info/level/careerId" xmlDataType="integer"/>
+      <xmlColumnPr mapId="11" xpath="/info/level/careerId" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="skillName" name="skillName" dataDxfId="3">
-      <xmlColumnPr mapId="10" xpath="/info/level/skillName" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="skillName" name="skillName" dataDxfId="4">
+      <xmlColumnPr mapId="11" xpath="/info/level/skillName" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="skillType" name="skillType" dataDxfId="3">
+      <xmlColumnPr mapId="11" xpath="/info/level/skillType" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="passive" name="passive">
+      <xmlColumnPr mapId="11" xpath="/info/level/passive" xmlDataType="boolean"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="damageHp" name="damageHp">
-      <xmlColumnPr mapId="10" xpath="/info/level/damageHp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="11" xpath="/info/level/damageHp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="level" name="level">
-      <xmlColumnPr mapId="10" xpath="/info/level/level" xmlDataType="integer"/>
+      <xmlColumnPr mapId="11" xpath="/info/level/level" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="mp" name="mp">
-      <xmlColumnPr mapId="10" xpath="/info/level/mp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="11" xpath="/info/level/mp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="healHp" name="healHp">
-      <xmlColumnPr mapId="10" xpath="/info/level/healHp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="11" xpath="/info/level/healHp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="healMp" name="healMp">
-      <xmlColumnPr mapId="10" xpath="/info/level/healMp" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="passive" name="passive">
-      <xmlColumnPr mapId="10" xpath="/info/level/passive" xmlDataType="boolean"/>
-    </tableColumn>
-    <tableColumn id="9" uniqueName="skillType" name="skillType" dataDxfId="2">
-      <xmlColumnPr mapId="10" xpath="/info/level/skillType" xmlDataType="integer"/>
+      <xmlColumnPr mapId="11" xpath="/info/level/healMp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="11" uniqueName="releaseDistance" name="releaseDistance">
-      <xmlColumnPr mapId="10" xpath="/info/level/releaseDistance" xmlDataType="integer"/>
+      <xmlColumnPr mapId="11" xpath="/info/level/releaseDistance" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="12" uniqueName="damageRadius" name="damageRadius">
-      <xmlColumnPr mapId="10" xpath="/info/level/damageRadius" xmlDataType="integer"/>
+      <xmlColumnPr mapId="11" xpath="/info/level/damageRadius" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="damagePeople" name="damagePeople">
-      <xmlColumnPr mapId="10" xpath="/info/level/damagePeople" xmlDataType="integer"/>
+      <xmlColumnPr mapId="11" xpath="/info/level/damagePeople" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="14" uniqueName="releaseSpeed" name="releaseSpeed">
-      <xmlColumnPr mapId="10" xpath="/info/level/releaseSpeed" xmlDataType="integer"/>
+      <xmlColumnPr mapId="11" xpath="/info/level/releaseSpeed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="lancherName" name="lancherName" dataDxfId="1">
-      <xmlColumnPr mapId="10" xpath="/info/level/lancherName" xmlDataType="string"/>
+    <tableColumn id="15" uniqueName="lancherName" name="lancherName" dataDxfId="2">
+      <xmlColumnPr mapId="11" xpath="/info/level/lancherName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="FirePoint" name="firePoint" dataDxfId="0">
-      <xmlColumnPr mapId="10" xpath="/info/level/FirePoint" xmlDataType="integer"/>
+    <tableColumn id="16" uniqueName="FirePoint" name="firePoint" dataDxfId="1">
+      <xmlColumnPr mapId="11" xpath="/info/level/FirePoint" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="17" uniqueName="canMove" name="canMove" dataDxfId="0">
+      <xmlColumnPr mapId="11" xpath="/info/level/canMove" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -628,38 +642,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="14.25" customWidth="1"/>
-    <col min="15" max="15" width="15.375" customWidth="1"/>
-    <col min="16" max="16" width="17.125" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
-    <col min="19" max="19" width="17.125" customWidth="1"/>
-    <col min="21" max="22" width="17.75" customWidth="1"/>
-    <col min="23" max="23" width="19.375" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="17" width="14.25" customWidth="1"/>
+    <col min="18" max="18" width="17.125" customWidth="1"/>
+    <col min="19" max="19" width="11.5" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="17.125" customWidth="1"/>
+    <col min="23" max="24" width="17.75" customWidth="1"/>
+    <col min="25" max="25" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,25 +685,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>27</v>
@@ -708,8 +723,11 @@
       <c r="P1" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -720,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
+        <v>10</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -758,8 +776,11 @@
       <c r="P2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -770,25 +791,25 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
       </c>
       <c r="F3">
         <v>15</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
+        <v>15</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -808,8 +829,11 @@
       <c r="P3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -820,25 +844,25 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>20</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
+        <v>20</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -858,8 +882,11 @@
       <c r="P4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -870,25 +897,25 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>60</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>60</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -908,8 +935,11 @@
       <c r="P5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -920,25 +950,25 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
+        <v>10</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>3.5</v>
@@ -958,8 +988,11 @@
       <c r="P6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -970,25 +1003,25 @@
         <v>9</v>
       </c>
       <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>40</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>15</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
+      <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1008,8 +1041,11 @@
       <c r="P7" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -1020,25 +1056,25 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>60</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>60</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1058,8 +1094,11 @@
       <c r="P8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -1070,25 +1109,25 @@
         <v>10</v>
       </c>
       <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>30</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>25</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1108,8 +1147,11 @@
       <c r="P9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -1120,25 +1162,25 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
       </c>
       <c r="F10">
         <v>30</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
+        <v>30</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>3.5</v>
@@ -1158,8 +1200,11 @@
       <c r="P10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3001</v>
       </c>
@@ -1170,25 +1215,25 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
+        <v>10</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1208,8 +1253,11 @@
       <c r="P11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3002</v>
       </c>
@@ -1220,25 +1268,25 @@
         <v>13</v>
       </c>
       <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
+        <v>10</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1258,8 +1306,11 @@
       <c r="P12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3003</v>
       </c>
@@ -1270,25 +1321,25 @@
         <v>14</v>
       </c>
       <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="b">
+        <v>15</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1308,8 +1359,11 @@
       <c r="P13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3004</v>
       </c>
@@ -1320,25 +1374,25 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>50</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>60</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1358,8 +1412,11 @@
       <c r="P14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3005</v>
       </c>
@@ -1370,25 +1427,25 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="F15">
-        <v>25</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="b">
+        <v>15</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1408,8 +1465,11 @@
       <c r="P15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3006</v>
       </c>
@@ -1420,25 +1480,25 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>30</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
+        <v>15</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1458,8 +1518,11 @@
       <c r="P16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4001</v>
       </c>
@@ -1470,25 +1533,25 @@
         <v>17</v>
       </c>
       <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="b">
+        <v>10</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1508,8 +1571,11 @@
       <c r="P17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4002</v>
       </c>
@@ -1520,25 +1586,25 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
       </c>
       <c r="F18">
         <v>15</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="b">
+        <v>15</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1558,8 +1624,11 @@
       <c r="P18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4003</v>
       </c>
@@ -1570,25 +1639,25 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
       </c>
       <c r="F19">
         <v>20</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="b">
+        <v>20</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1608,8 +1677,11 @@
       <c r="P19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4004</v>
       </c>
@@ -1620,25 +1692,25 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>60</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>60</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1658,8 +1730,11 @@
       <c r="P20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>

--- a/Assets/_FightGame/xmls/Skill.xlsx
+++ b/Assets/_FightGame/xmls/Skill.xlsx
@@ -29,35 +29,38 @@
   <connection id="3" name="SkillInfoMap1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="4" name="SkillInfoMap2" type="4" refreshedVersion="0" background="1">
+  <connection id="4" name="SkillInfoMap10" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" name="SkillInfoMap3" type="4" refreshedVersion="0" background="1">
+  <connection id="5" name="SkillInfoMap2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" name="SkillInfoMap4" type="4" refreshedVersion="0" background="1">
+  <connection id="6" name="SkillInfoMap3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" name="SkillInfoMap5" type="4" refreshedVersion="0" background="1">
+  <connection id="7" name="SkillInfoMap4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" name="SkillInfoMap6" type="4" refreshedVersion="0" background="1">
+  <connection id="8" name="SkillInfoMap5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" name="SkillInfoMap7" type="4" refreshedVersion="0" background="1">
+  <connection id="9" name="SkillInfoMap6" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="10" name="SkillInfoMap8" type="4" refreshedVersion="0" background="1">
+  <connection id="10" name="SkillInfoMap7" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="11" name="SkillInfoMap9" type="4" refreshedVersion="0" background="1">
+  <connection id="11" name="SkillInfoMap8" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="12" name="SkillInfoMap9" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Administrator\Desktop\ProjectsFiles\FootmanGame\Assets\_FightGame\xmls\SkillInfoMap.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>careerId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +195,10 @@
   </si>
   <si>
     <t>canMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loopTimes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +287,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="info">
         <xsd:complexType>
@@ -305,6 +312,7 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="lancherName" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="FirePoint" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="canMove" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="loopTimes" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -313,66 +321,69 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="11" Name="info_映射" RootElement="info" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="11" DataBindingLoadMode="1"/>
+  <Map ID="12" Name="info_映射" RootElement="info" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="4" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:Q20" tableType="xml" totalsRowShown="0" headerRowDxfId="5" connectionId="11">
-  <autoFilter ref="A1:Q20"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:R20" tableType="xml" totalsRowShown="0" headerRowDxfId="5" connectionId="4">
+  <autoFilter ref="A1:R20"/>
+  <tableColumns count="18">
     <tableColumn id="1" uniqueName="id" name="id">
-      <xmlColumnPr mapId="11" xpath="/info/level/id" xmlDataType="integer"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/id" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="careerId" name="careerId">
-      <xmlColumnPr mapId="11" xpath="/info/level/careerId" xmlDataType="integer"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/careerId" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="skillName" name="skillName" dataDxfId="4">
-      <xmlColumnPr mapId="11" xpath="/info/level/skillName" xmlDataType="string"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/skillName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="skillType" name="skillType" dataDxfId="3">
-      <xmlColumnPr mapId="11" xpath="/info/level/skillType" xmlDataType="integer"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/skillType" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="passive" name="passive">
-      <xmlColumnPr mapId="11" xpath="/info/level/passive" xmlDataType="boolean"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/passive" xmlDataType="boolean"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="damageHp" name="damageHp">
-      <xmlColumnPr mapId="11" xpath="/info/level/damageHp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/damageHp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="level" name="level">
-      <xmlColumnPr mapId="11" xpath="/info/level/level" xmlDataType="integer"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/level" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="mp" name="mp">
-      <xmlColumnPr mapId="11" xpath="/info/level/mp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/mp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="healHp" name="healHp">
-      <xmlColumnPr mapId="11" xpath="/info/level/healHp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/healHp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="healMp" name="healMp">
-      <xmlColumnPr mapId="11" xpath="/info/level/healMp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/healMp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="11" uniqueName="releaseDistance" name="releaseDistance">
-      <xmlColumnPr mapId="11" xpath="/info/level/releaseDistance" xmlDataType="integer"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/releaseDistance" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="12" uniqueName="damageRadius" name="damageRadius">
-      <xmlColumnPr mapId="11" xpath="/info/level/damageRadius" xmlDataType="integer"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/damageRadius" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="damagePeople" name="damagePeople">
-      <xmlColumnPr mapId="11" xpath="/info/level/damagePeople" xmlDataType="integer"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/damagePeople" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="14" uniqueName="releaseSpeed" name="releaseSpeed">
-      <xmlColumnPr mapId="11" xpath="/info/level/releaseSpeed" xmlDataType="integer"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/releaseSpeed" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="15" uniqueName="lancherName" name="lancherName" dataDxfId="2">
-      <xmlColumnPr mapId="11" xpath="/info/level/lancherName" xmlDataType="string"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/lancherName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="16" uniqueName="FirePoint" name="firePoint" dataDxfId="1">
-      <xmlColumnPr mapId="11" xpath="/info/level/FirePoint" xmlDataType="integer"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/FirePoint" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="17" uniqueName="canMove" name="canMove" dataDxfId="0">
-      <xmlColumnPr mapId="11" xpath="/info/level/canMove" xmlDataType="string"/>
+      <xmlColumnPr mapId="12" xpath="/info/level/canMove" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="18" uniqueName="loopTimes" name="loopTimes">
+      <xmlColumnPr mapId="12" xpath="/info/level/loopTimes" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -642,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -674,7 +685,7 @@
     <col min="25" max="25" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -726,8 +737,11 @@
       <c r="Q1" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -779,8 +793,11 @@
       <c r="Q2" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -832,8 +849,11 @@
       <c r="Q3" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -885,8 +905,11 @@
       <c r="Q4" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -938,8 +961,11 @@
       <c r="Q5" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -991,8 +1017,11 @@
       <c r="Q6" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -1044,8 +1073,11 @@
       <c r="Q7" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -1097,8 +1129,11 @@
       <c r="Q8" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -1150,8 +1185,11 @@
       <c r="Q9" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -1203,8 +1241,11 @@
       <c r="Q10" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3001</v>
       </c>
@@ -1256,8 +1297,11 @@
       <c r="Q11" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3002</v>
       </c>
@@ -1309,8 +1353,11 @@
       <c r="Q12" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3003</v>
       </c>
@@ -1362,8 +1409,11 @@
       <c r="Q13" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3004</v>
       </c>
@@ -1415,8 +1465,11 @@
       <c r="Q14" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3005</v>
       </c>
@@ -1468,8 +1521,11 @@
       <c r="Q15" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3006</v>
       </c>
@@ -1521,8 +1577,11 @@
       <c r="Q16" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4001</v>
       </c>
@@ -1574,8 +1633,11 @@
       <c r="Q17" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4002</v>
       </c>
@@ -1627,8 +1689,11 @@
       <c r="Q18" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4003</v>
       </c>
@@ -1680,8 +1745,11 @@
       <c r="Q19" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4004</v>
       </c>
@@ -1733,8 +1801,11 @@
       <c r="Q20" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>

--- a/Assets/_FightGame/xmls/Skill.xlsx
+++ b/Assets/_FightGame/xmls/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>careerId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Rapid Attack</t>
-  </si>
-  <si>
-    <t>Spin Attack</t>
   </si>
   <si>
     <t>Row Attack</t>
@@ -328,8 +325,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:R20" tableType="xml" totalsRowShown="0" headerRowDxfId="5" connectionId="4">
-  <autoFilter ref="A1:R20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:R19" tableType="xml" totalsRowShown="0" headerRowDxfId="5" connectionId="4">
+  <autoFilter ref="A1:R19"/>
   <tableColumns count="18">
     <tableColumn id="1" uniqueName="id" name="id">
       <xmlColumnPr mapId="12" xpath="/info/level/id" xmlDataType="integer"/>
@@ -653,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,49 +693,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -785,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
@@ -841,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" s="2">
         <v>0</v>
@@ -897,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2">
         <v>0</v>
@@ -953,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P5" s="2">
         <v>0</v>
@@ -1009,7 +1006,7 @@
         <v>5.5</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
@@ -1065,7 +1062,7 @@
         <v>8</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="2">
         <v>2</v>
@@ -1085,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1121,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" s="2">
         <v>0</v>
@@ -1177,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="2">
         <v>0</v>
@@ -1233,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P10" s="2">
         <v>0</v>
@@ -1289,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P11" s="2">
         <v>0</v>
@@ -1345,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P12" s="2">
         <v>0</v>
@@ -1401,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
@@ -1457,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P14" s="2">
         <v>0</v>
@@ -1480,7 +1477,7 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1513,24 +1510,24 @@
         <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
       </c>
       <c r="Q15" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>3006</v>
+        <v>4001</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
@@ -1542,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1569,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P16" s="2">
         <v>0</v>
@@ -1583,7 +1580,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -1598,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1625,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
@@ -1639,13 +1636,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1654,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1681,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
@@ -1695,34 +1692,34 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1737,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P19" s="2">
         <v>0</v>
@@ -1749,65 +1746,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>4004</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>60</v>
-      </c>
-      <c r="J20">
-        <v>60</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>24</v>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_FightGame/xmls/Skill.xlsx
+++ b/Assets/_FightGame/xmls/Skill.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>careerId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,14 @@
   </si>
   <si>
     <t>loopTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spin Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -325,8 +333,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:R19" tableType="xml" totalsRowShown="0" headerRowDxfId="5" connectionId="4">
-  <autoFilter ref="A1:R19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:R20" tableType="xml" totalsRowShown="0" headerRowDxfId="5" connectionId="4">
+  <autoFilter ref="A1:R20"/>
   <tableColumns count="18">
     <tableColumn id="1" uniqueName="id" name="id">
       <xmlColumnPr mapId="12" xpath="/info/level/id" xmlDataType="integer"/>
@@ -650,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -776,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -832,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -888,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -944,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1050,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -1112,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1168,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1280,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1336,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1392,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1448,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1504,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
@@ -1524,28 +1532,28 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4001</v>
+        <v>3006</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1560,48 +1568,48 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P16" s="2">
         <v>0</v>
       </c>
-      <c r="Q16" s="1" t="b">
-        <v>0</v>
+      <c r="Q16" t="b">
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1610,22 +1618,22 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1" t="b">
         <v>0</v>
@@ -1636,28 +1644,28 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1666,22 +1674,22 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1" t="b">
         <v>0</v>
@@ -1692,62 +1700,118 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>8</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4004</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>60</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>60</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1" t="s">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
